--- a/biology/Médecine/Michel_Payot_(1869-1908)/Michel_Payot_(1869-1908).xlsx
+++ b/biology/Médecine/Michel_Payot_(1869-1908)/Michel_Payot_(1869-1908).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Payot (Chamonix, 29 mai 1869 - Chamonix, 30 janvier 1908[1]) est un médecin de Chamonix, promoteur du ski alpin.
-Il est un des premiers à utiliser des skis dans la vallée pour visiter des patients isolés[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Payot (Chamonix, 29 mai 1869 - Chamonix, 30 janvier 1908) est un médecin de Chamonix, promoteur du ski alpin.
+Il est un des premiers à utiliser des skis dans la vallée pour visiter des patients isolés.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Pionnier de la randonnée à ski</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Payot découvre, à la fin XIXe siècle, un nouveau moyen de déplacement hivernal venant de Norvège : les skis. Il prend des cours avec deux moniteurs norvégiens. Devenu président de la section du CAF de Chamonix, il inaugure, avec ses amis guides, des itinéraires à ski comme la traversée Chamonix - Col du Géant - Courmayeur en 14 heures et la Haute Route Chamonix –Zermatt[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Payot découvre, à la fin XIXe siècle, un nouveau moyen de déplacement hivernal venant de Norvège : les skis. Il prend des cours avec deux moniteurs norvégiens. Devenu président de la section du CAF de Chamonix, il inaugure, avec ses amis guides, des itinéraires à ski comme la traversée Chamonix - Col du Géant - Courmayeur en 14 heures et la Haute Route Chamonix –Zermatt.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Sports d'hiver</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il organise et participe à des compétitions de ski, de luge et de bobsleigh. On peut le considérer comme l'initiateur des sports d’hier dans la vallée de Chamonix.
 </t>
@@ -574,9 +590,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors qu'il venait d’organiser la seconde compétition internationale de ski de Chamonix, le docteur Payot décède le 30 janvier 1908, des suites d’une pneumonie contractée après une visite à ski chez une malade au Tour[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors qu'il venait d’organiser la seconde compétition internationale de ski de Chamonix, le docteur Payot décède le 30 janvier 1908, des suites d’une pneumonie contractée après une visite à ski chez une malade au Tour.
 </t>
         </is>
       </c>
